--- a/ExpenseWorkbook.xlsx
+++ b/ExpenseWorkbook.xlsx
@@ -433,13 +433,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="32.7109375" defaultRowHeight="33.75" customHeight="1" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="32.7109375" defaultRowHeight="33.75" customHeight="1"/>
   <cols>
     <col width="32.7109375" customWidth="1" style="1" min="1" max="2"/>
     <col width="32.7109375" customWidth="1" style="2" min="3" max="3"/>
@@ -795,6 +795,28 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Transport Home to Epza</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
